--- a/data/Spreadsheet_Data/FairytaleChapter.xlsx
+++ b/data/Spreadsheet_Data/FairytaleChapter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5937D9B8-933F-9C49-BCF3-DB086A02ABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0B38A0-0B2E-3241-B40E-F14977E73120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="9640" windowWidth="46560" windowHeight="18380" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
+    <workbookView xWindow="30100" yWindow="500" windowWidth="43380" windowHeight="18380" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -107,6 +107,45 @@
   </si>
   <si>
     <t>F_01</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Chapter 1</t>
+  </si>
+  <si>
+    <t>Chapter 2</t>
+  </si>
+  <si>
+    <t>Chapter 3</t>
+  </si>
+  <si>
+    <t>Chapter 4</t>
+  </si>
+  <si>
+    <t>Chapter 5</t>
+  </si>
+  <si>
+    <t>Chapter 6</t>
+  </si>
+  <si>
+    <t>Chapter 7</t>
+  </si>
+  <si>
+    <t>Chapter 8</t>
+  </si>
+  <si>
+    <t>Chapter 9</t>
+  </si>
+  <si>
+    <t>Link to Alice Character ID</t>
+  </si>
+  <si>
+    <t>Image Directory</t>
+  </si>
+  <si>
+    <t>File Name</t>
   </si>
 </sst>
 </file>
@@ -155,10 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,9 +223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +263,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -331,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,165 +519,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09649F71-DF44-614C-901E-D19B2BEB1C69}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="6" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="100" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="100" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="100" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Spreadsheet_Data/FairytaleChapter.xlsx
+++ b/data/Spreadsheet_Data/FairytaleChapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0B38A0-0B2E-3241-B40E-F14977E73120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDCB86-662D-304B-A709-FBAD4D48EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30100" yWindow="500" windowWidth="43380" windowHeight="18380" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="53980" windowHeight="22240" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -146,13 +146,34 @@
   </si>
   <si>
     <t>File Name</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.alice-in-wonderland.net/resources/chapters-script/alices-adventures-in-wonderland/chapter-1/</t>
+  </si>
+  <si>
+    <t>W_001</t>
+  </si>
+  <si>
+    <t>W_001, W_002</t>
+  </si>
+  <si>
+    <t>W_001, W_004</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 1.png</t>
+  </si>
+  <si>
+    <t>/data/Multimedia_Data/Fairytale_Chapter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -169,6 +190,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -205,6 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09649F71-DF44-614C-901E-D19B2BEB1C69}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -531,10 +560,12 @@
     <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
     <col min="6" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="90.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +593,11 @@
       <c r="I1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="100" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -579,8 +613,20 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="100" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="140" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -596,8 +642,11 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="100" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -613,8 +662,11 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -630,8 +682,11 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -647,8 +702,11 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -664,8 +722,11 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="100" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -681,8 +742,11 @@
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -698,8 +762,11 @@
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="100" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -714,6 +781,9 @@
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/FairytaleChapter.xlsx
+++ b/data/Spreadsheet_Data/FairytaleChapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDCB86-662D-304B-A709-FBAD4D48EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC66A203-DA62-8B42-A225-431C4C77FC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="53980" windowHeight="22240" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="53980" windowHeight="22240" xr2:uid="{64081837-AED4-5C4F-90D9-3983F07F1270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -106,9 +106,6 @@
     <t>FC_09</t>
   </si>
   <si>
-    <t>F_01</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -166,7 +163,34 @@
     <t>Alice in Wonderland Chapter 1.png</t>
   </si>
   <si>
-    <t>/data/Multimedia_Data/Fairytale_Chapter</t>
+    <t>data/Multimedia_Data/Fairytale_Chapter/</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 2.png</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 3.png</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 4.png</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 5.png</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 6.png</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 7.png</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 8.png</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland Chapter 9.png</t>
+  </si>
+  <si>
+    <t>FT_001</t>
   </si>
 </sst>
 </file>
@@ -550,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09649F71-DF44-614C-901E-D19B2BEB1C69}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -570,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -585,16 +609,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="100" x14ac:dyDescent="0.25">
@@ -602,10 +626,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -614,16 +638,16 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="140" x14ac:dyDescent="0.25">
@@ -631,10 +655,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -643,7 +667,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="100" x14ac:dyDescent="0.25">
@@ -651,10 +681,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -663,7 +693,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" x14ac:dyDescent="0.25">
@@ -671,10 +707,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -683,7 +719,13 @@
         <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="100" x14ac:dyDescent="0.25">
@@ -691,10 +733,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
@@ -703,7 +745,13 @@
         <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100" x14ac:dyDescent="0.25">
@@ -711,10 +759,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3">
         <v>6</v>
@@ -723,7 +771,13 @@
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -731,10 +785,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3">
         <v>7</v>
@@ -743,7 +797,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -751,10 +811,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
@@ -763,18 +823,24 @@
         <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="100" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3">
         <v>9</v>
@@ -783,7 +849,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
